--- a/Excel/perhitungan metode topsis.xlsx
+++ b/Excel/perhitungan metode topsis.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="DATA LOWONGAN" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="TOPSIS" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1172,13 +1172,13 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:H15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
@@ -1973,7 +1973,7 @@
   <dimension ref="A1:S98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,22 +2162,22 @@
       <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="50">
-        <v>1</v>
-      </c>
-      <c r="C7" s="51">
+      <c r="B7" s="34">
+        <v>1</v>
+      </c>
+      <c r="C7" s="35">
         <v>3</v>
       </c>
-      <c r="D7" s="51">
-        <v>1</v>
-      </c>
-      <c r="E7" s="51">
-        <v>1</v>
-      </c>
-      <c r="F7" s="51">
-        <v>1</v>
-      </c>
-      <c r="G7" s="51">
+      <c r="D7" s="35">
+        <v>1</v>
+      </c>
+      <c r="E7" s="35">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35">
+        <v>1</v>
+      </c>
+      <c r="G7" s="35">
         <v>2</v>
       </c>
     </row>
